--- a/Code/Results/Cases/Case_9_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.92846280253893</v>
+        <v>22.99133338528089</v>
       </c>
       <c r="C2">
-        <v>13.87503686387582</v>
+        <v>14.44008397524298</v>
       </c>
       <c r="D2">
-        <v>4.132267422109439</v>
+        <v>4.146844543659051</v>
       </c>
       <c r="E2">
-        <v>8.351818334843026</v>
+        <v>8.112411361309105</v>
       </c>
       <c r="F2">
-        <v>27.54662554439883</v>
+        <v>25.87631288170659</v>
       </c>
       <c r="G2">
-        <v>39.6670631384413</v>
+        <v>36.21385634527068</v>
       </c>
       <c r="H2">
-        <v>1.627847424792113</v>
+        <v>1.586256462291241</v>
       </c>
       <c r="I2">
-        <v>2.514622186226544</v>
+        <v>2.489380200534728</v>
       </c>
       <c r="J2">
-        <v>12.19172529423918</v>
+        <v>11.99362277544767</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.07993562085723</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.82058626869988</v>
       </c>
       <c r="N2">
-        <v>7.981009790671814</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.45345430616262</v>
+        <v>8.094637971266277</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.32966035766647</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.38915323031469</v>
+        <v>21.54432994208893</v>
       </c>
       <c r="C3">
-        <v>13.12297015556654</v>
+        <v>13.58121560117614</v>
       </c>
       <c r="D3">
-        <v>4.110679307125397</v>
+        <v>4.097945862177629</v>
       </c>
       <c r="E3">
-        <v>8.126510965294459</v>
+        <v>7.925574049678223</v>
       </c>
       <c r="F3">
-        <v>26.41670753247784</v>
+        <v>24.91482778356231</v>
       </c>
       <c r="G3">
-        <v>37.85335362096459</v>
+        <v>34.70513600001446</v>
       </c>
       <c r="H3">
-        <v>1.89041503181963</v>
+        <v>1.822039888269405</v>
       </c>
       <c r="I3">
-        <v>2.741952894788167</v>
+        <v>2.655854545400528</v>
       </c>
       <c r="J3">
-        <v>11.92665091451191</v>
+        <v>11.75892775671117</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.05417291509275</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.49435831944715</v>
       </c>
       <c r="N3">
-        <v>7.637837867523356</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.61167562433822</v>
+        <v>7.757092882152823</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.46824287181537</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.38830252302313</v>
+        <v>20.60180062494042</v>
       </c>
       <c r="C4">
-        <v>12.64173960615975</v>
+        <v>13.03011444387098</v>
       </c>
       <c r="D4">
-        <v>4.096450685927536</v>
+        <v>4.067024571621087</v>
       </c>
       <c r="E4">
-        <v>7.983463536122838</v>
+        <v>7.80683826188455</v>
       </c>
       <c r="F4">
-        <v>25.70805689299865</v>
+        <v>24.31161026020106</v>
       </c>
       <c r="G4">
-        <v>36.70771095203528</v>
+        <v>33.75596160136979</v>
       </c>
       <c r="H4">
-        <v>2.057045047004994</v>
+        <v>1.971852593753855</v>
       </c>
       <c r="I4">
-        <v>2.887025431347549</v>
+        <v>2.781115101696092</v>
       </c>
       <c r="J4">
-        <v>11.76448917594575</v>
+        <v>11.61258913050891</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.03351863957646</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.31152469323711</v>
       </c>
       <c r="N4">
-        <v>7.419433194000678</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.70981624509675</v>
+        <v>7.542567707260322</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.55503193302081</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.95847650055878</v>
+        <v>20.19649587529604</v>
       </c>
       <c r="C5">
-        <v>12.44738787011869</v>
+        <v>12.80643255941685</v>
       </c>
       <c r="D5">
-        <v>4.090665003334361</v>
+        <v>4.054746224004126</v>
       </c>
       <c r="E5">
-        <v>7.922330555795153</v>
+        <v>7.75598161126634</v>
       </c>
       <c r="F5">
-        <v>25.4025635649887</v>
+        <v>24.05023523787842</v>
       </c>
       <c r="G5">
-        <v>36.2091710773457</v>
+        <v>33.34085800337893</v>
       </c>
       <c r="H5">
-        <v>2.126817767734052</v>
+        <v>2.034631379466033</v>
       </c>
       <c r="I5">
-        <v>2.950634022967044</v>
+        <v>2.837051320978644</v>
       </c>
       <c r="J5">
-        <v>11.69389965040322</v>
+        <v>11.5480470202144</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.01598538371453</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.23508732287805</v>
       </c>
       <c r="N5">
-        <v>7.328941866994303</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.7494582838802</v>
+        <v>7.453758126648199</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.59067200384178</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.87646633380441</v>
+        <v>20.1190271397102</v>
       </c>
       <c r="C6">
-        <v>12.42290291731164</v>
+        <v>12.77726256782157</v>
       </c>
       <c r="D6">
-        <v>4.090010212413984</v>
+        <v>4.053369528805361</v>
       </c>
       <c r="E6">
-        <v>7.910094934543278</v>
+        <v>7.745704306681464</v>
       </c>
       <c r="F6">
-        <v>25.33532760882571</v>
+        <v>23.99124529222263</v>
       </c>
       <c r="G6">
-        <v>36.09637237565045</v>
+        <v>33.24349770098575</v>
       </c>
       <c r="H6">
-        <v>2.139074688296116</v>
+        <v>2.045669867776972</v>
       </c>
       <c r="I6">
-        <v>2.965258935296569</v>
+        <v>2.851025343999136</v>
       </c>
       <c r="J6">
-        <v>11.67643220538639</v>
+        <v>11.5319308517423</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.00337205889319</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.21460491039764</v>
       </c>
       <c r="N6">
-        <v>7.314266303189314</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.75531190945758</v>
+        <v>7.439350844590391</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.5964313517598</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.35641895726635</v>
+        <v>20.56040353128282</v>
       </c>
       <c r="C7">
-        <v>12.66080309489754</v>
+        <v>13.03809003455579</v>
       </c>
       <c r="D7">
-        <v>4.097274096494754</v>
+        <v>4.070063252511759</v>
       </c>
       <c r="E7">
-        <v>7.977210731452702</v>
+        <v>7.802009563516251</v>
       </c>
       <c r="F7">
-        <v>25.65999973542889</v>
+        <v>24.23985753453709</v>
       </c>
       <c r="G7">
-        <v>36.62148232115046</v>
+        <v>33.75444753741898</v>
       </c>
       <c r="H7">
-        <v>2.059560604833874</v>
+        <v>1.9749025614399</v>
       </c>
       <c r="I7">
-        <v>2.898487811632745</v>
+        <v>2.794928427868578</v>
       </c>
       <c r="J7">
-        <v>11.74791714289377</v>
+        <v>11.53855562616657</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.99613925546349</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.27830853387079</v>
       </c>
       <c r="N7">
-        <v>7.419466188866392</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.70838850418021</v>
+        <v>7.54137034711633</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.55499817052333</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.377256998215</v>
+        <v>22.43921873427382</v>
       </c>
       <c r="C8">
-        <v>13.6467453269643</v>
+        <v>14.14138951480987</v>
       </c>
       <c r="D8">
-        <v>4.12634198102565</v>
+        <v>4.137507578938039</v>
       </c>
       <c r="E8">
-        <v>8.268193420556791</v>
+        <v>8.044934814299577</v>
       </c>
       <c r="F8">
-        <v>27.10497047462289</v>
+        <v>25.41077225487954</v>
       </c>
       <c r="G8">
-        <v>38.94906641919886</v>
+        <v>35.85590524397831</v>
       </c>
       <c r="H8">
-        <v>1.719272871440936</v>
+        <v>1.670728540935375</v>
       </c>
       <c r="I8">
-        <v>2.605872418825492</v>
+        <v>2.545322243373402</v>
       </c>
       <c r="J8">
-        <v>12.08010969468081</v>
+        <v>11.70517527766642</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.004789690284</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.64051609528087</v>
       </c>
       <c r="N8">
-        <v>7.865908755781629</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.50556101371983</v>
+        <v>7.9775701768781</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.37727550581481</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.93919454675318</v>
+        <v>25.77486164371956</v>
       </c>
       <c r="C9">
-        <v>15.38908824414094</v>
+        <v>16.12006477865585</v>
       </c>
       <c r="D9">
-        <v>4.173750748604004</v>
+        <v>4.25396688862649</v>
       </c>
       <c r="E9">
-        <v>8.811220090910906</v>
+        <v>8.495694819010284</v>
       </c>
       <c r="F9">
-        <v>29.88021908104162</v>
+        <v>27.76245736697336</v>
       </c>
       <c r="G9">
-        <v>43.37116803158157</v>
+        <v>39.60950230928333</v>
       </c>
       <c r="H9">
-        <v>2.018862281872349</v>
+        <v>2.002197024538484</v>
       </c>
       <c r="I9">
-        <v>2.885235683467345</v>
+        <v>2.878130202038734</v>
       </c>
       <c r="J9">
-        <v>12.76107555282476</v>
+        <v>12.25159577472112</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.06779531803643</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.55530051104902</v>
       </c>
       <c r="N9">
-        <v>8.675702865479117</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.11775938126057</v>
+        <v>8.774751007454192</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.04223240081625</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.19116138614029</v>
+        <v>27.85235048010421</v>
       </c>
       <c r="C10">
-        <v>16.63320071833066</v>
+        <v>17.45691051464966</v>
       </c>
       <c r="D10">
-        <v>4.211786656785741</v>
+        <v>4.357780987557028</v>
       </c>
       <c r="E10">
-        <v>9.091467810431233</v>
+        <v>8.727131635258614</v>
       </c>
       <c r="F10">
-        <v>31.62408237027893</v>
+        <v>29.10619106721237</v>
       </c>
       <c r="G10">
-        <v>46.07706354935205</v>
+        <v>42.29898201762827</v>
       </c>
       <c r="H10">
-        <v>2.432256948457104</v>
+        <v>2.367858218732612</v>
       </c>
       <c r="I10">
-        <v>3.248368314344871</v>
+        <v>3.187447017380187</v>
       </c>
       <c r="J10">
-        <v>13.18397757037293</v>
+        <v>12.26937657318571</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.94321999961405</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.1205747570389</v>
       </c>
       <c r="N10">
-        <v>9.092732361788396</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.83179194678563</v>
+        <v>9.17718445986034</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.81298124642047</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.35636326477788</v>
+        <v>27.95758355253603</v>
       </c>
       <c r="C11">
-        <v>17.64430872229153</v>
+        <v>18.34796531534496</v>
       </c>
       <c r="D11">
-        <v>4.31837500587525</v>
+        <v>4.55584395675608</v>
       </c>
       <c r="E11">
-        <v>8.588544135032093</v>
+        <v>8.306238081902888</v>
       </c>
       <c r="F11">
-        <v>30.77926889576629</v>
+        <v>28.07443447745153</v>
       </c>
       <c r="G11">
-        <v>44.39904133327845</v>
+        <v>41.63041301889086</v>
       </c>
       <c r="H11">
-        <v>3.210781356266422</v>
+        <v>3.150191571881399</v>
       </c>
       <c r="I11">
-        <v>3.342872276301217</v>
+        <v>3.266497907986126</v>
       </c>
       <c r="J11">
-        <v>12.75455372045992</v>
+        <v>11.25956516678533</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.04338173161327</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.41923037432029</v>
       </c>
       <c r="N11">
-        <v>8.121379684699887</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.70440178430361</v>
+        <v>8.180843887945906</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.80653080443801</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.04966599334364</v>
+        <v>27.6712515358994</v>
       </c>
       <c r="C12">
-        <v>18.22692623061329</v>
+        <v>18.83606156996459</v>
       </c>
       <c r="D12">
-        <v>4.426107698046487</v>
+        <v>4.715074339343877</v>
       </c>
       <c r="E12">
-        <v>8.405506889386697</v>
+        <v>8.196505049266978</v>
       </c>
       <c r="F12">
-        <v>29.73887097711211</v>
+        <v>27.03709662904911</v>
       </c>
       <c r="G12">
-        <v>42.48725870602727</v>
+        <v>40.33996124787313</v>
       </c>
       <c r="H12">
-        <v>4.378691788644123</v>
+        <v>4.334064623188621</v>
       </c>
       <c r="I12">
-        <v>3.349330488612971</v>
+        <v>3.270648390924728</v>
       </c>
       <c r="J12">
-        <v>12.31648181552874</v>
+        <v>10.62014718889455</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.39030322857662</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.76636753762211</v>
       </c>
       <c r="N12">
-        <v>7.245568492590918</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.69861088884058</v>
+        <v>7.28923684118673</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.88206470450171</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.3211011221505</v>
+        <v>27.04974911912217</v>
       </c>
       <c r="C13">
-        <v>18.55675941342754</v>
+        <v>19.10835500473292</v>
       </c>
       <c r="D13">
-        <v>4.539305491422461</v>
+        <v>4.841831855883274</v>
       </c>
       <c r="E13">
-        <v>8.45868229152207</v>
+        <v>8.324242605668989</v>
       </c>
       <c r="F13">
-        <v>28.39745537189563</v>
+        <v>25.90638780317968</v>
       </c>
       <c r="G13">
-        <v>40.12020217557598</v>
+        <v>38.18021060247261</v>
       </c>
       <c r="H13">
-        <v>5.64058478344866</v>
+        <v>5.61115519193371</v>
       </c>
       <c r="I13">
-        <v>3.290964955121318</v>
+        <v>3.223060778051494</v>
       </c>
       <c r="J13">
-        <v>11.81633920332869</v>
+        <v>10.30472556853129</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.85912959143573</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.0951558690131</v>
       </c>
       <c r="N13">
-        <v>6.39224424808246</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.77845368523997</v>
+        <v>6.428236270799573</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.00652945030646</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.60367704320942</v>
+        <v>26.44734858950465</v>
       </c>
       <c r="C14">
-        <v>18.68405834741949</v>
+        <v>19.21086596634336</v>
       </c>
       <c r="D14">
-        <v>4.623523680176995</v>
+        <v>4.915910243286424</v>
       </c>
       <c r="E14">
-        <v>8.639271846721613</v>
+        <v>8.55767433547676</v>
       </c>
       <c r="F14">
-        <v>27.296400172747</v>
+        <v>25.04707947221588</v>
       </c>
       <c r="G14">
-        <v>38.20887757969417</v>
+        <v>36.23633475511292</v>
       </c>
       <c r="H14">
-        <v>6.557610088919222</v>
+        <v>6.537186965326014</v>
       </c>
       <c r="I14">
-        <v>3.222012294617062</v>
+        <v>3.167775815612201</v>
       </c>
       <c r="J14">
-        <v>11.43215460247004</v>
+        <v>10.21077411753301</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.53114460122028</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.61040029672476</v>
       </c>
       <c r="N14">
-        <v>5.823213836866319</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.87557722918172</v>
+        <v>5.85711709446431</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.11405993221374</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.32785654660692</v>
+        <v>26.21730480080657</v>
       </c>
       <c r="C15">
-        <v>18.66791752662144</v>
+        <v>19.19560909992949</v>
       </c>
       <c r="D15">
-        <v>4.642995745035124</v>
+        <v>4.925583250950205</v>
       </c>
       <c r="E15">
-        <v>8.69136254593062</v>
+        <v>8.624851757234708</v>
       </c>
       <c r="F15">
-        <v>26.94878885721955</v>
+        <v>24.79943452541954</v>
       </c>
       <c r="G15">
-        <v>37.61791861779468</v>
+        <v>35.56260163649233</v>
       </c>
       <c r="H15">
-        <v>6.765482575101093</v>
+        <v>6.747750050843861</v>
       </c>
       <c r="I15">
-        <v>3.19177441342861</v>
+        <v>3.14422260765122</v>
       </c>
       <c r="J15">
-        <v>11.32095942812639</v>
+        <v>10.23857995365634</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.46405536143289</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.48042798097966</v>
       </c>
       <c r="N15">
-        <v>5.686007255120693</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.91266054075107</v>
+        <v>5.72111771846029</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.14630325448903</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.45392163339924</v>
+        <v>25.49105755091293</v>
       </c>
       <c r="C16">
-        <v>18.12636352378328</v>
+        <v>18.70936590954036</v>
       </c>
       <c r="D16">
-        <v>4.601115449870358</v>
+        <v>4.824233441931325</v>
       </c>
       <c r="E16">
-        <v>8.547290102334982</v>
+        <v>8.503364901229945</v>
       </c>
       <c r="F16">
-        <v>26.37664208653914</v>
+        <v>24.56518301539459</v>
       </c>
       <c r="G16">
-        <v>36.7534510090142</v>
+        <v>34.08067462352469</v>
       </c>
       <c r="H16">
-        <v>6.484766547769332</v>
+        <v>6.474948950589686</v>
       </c>
       <c r="I16">
-        <v>3.050545225624599</v>
+        <v>3.029835409562749</v>
       </c>
       <c r="J16">
-        <v>11.21697019289509</v>
+        <v>10.70154415682934</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.64105733623718</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.4417824842537</v>
       </c>
       <c r="N16">
-        <v>5.644506407401281</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.00427202294026</v>
+        <v>5.696084349229479</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.17723845535237</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.17712171647619</v>
+        <v>25.24515965014433</v>
       </c>
       <c r="C17">
-        <v>17.63105952055022</v>
+        <v>18.25555326475765</v>
       </c>
       <c r="D17">
-        <v>4.522467423047518</v>
+        <v>4.713260953628491</v>
       </c>
       <c r="E17">
-        <v>8.310629942969694</v>
+        <v>8.25048472746637</v>
       </c>
       <c r="F17">
-        <v>26.54417466699148</v>
+        <v>24.82630324441715</v>
       </c>
       <c r="G17">
-        <v>37.14675002667602</v>
+        <v>34.1187115765897</v>
       </c>
       <c r="H17">
-        <v>5.730635270438094</v>
+        <v>5.723667951727397</v>
       </c>
       <c r="I17">
-        <v>2.978718016163838</v>
+        <v>2.970622878816596</v>
       </c>
       <c r="J17">
-        <v>11.3454781853791</v>
+        <v>11.04618107014955</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.95021655991651</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.65645298423381</v>
       </c>
       <c r="N17">
-        <v>5.910524565539846</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.02343184043768</v>
+        <v>5.974857197061125</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.15347627998927</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.41725901638553</v>
+        <v>25.43282190609152</v>
       </c>
       <c r="C18">
-        <v>17.11179113403759</v>
+        <v>17.78884935747617</v>
       </c>
       <c r="D18">
-        <v>4.411634565460252</v>
+        <v>4.579627466433498</v>
       </c>
       <c r="E18">
-        <v>8.116622707925931</v>
+        <v>7.999917254165847</v>
       </c>
       <c r="F18">
-        <v>27.39620875317016</v>
+        <v>25.61848014403636</v>
       </c>
       <c r="G18">
-        <v>38.72116402902582</v>
+        <v>35.37522393597776</v>
       </c>
       <c r="H18">
-        <v>4.520907691844687</v>
+        <v>4.512923782096189</v>
       </c>
       <c r="I18">
-        <v>2.958216353697046</v>
+        <v>2.951334208093951</v>
       </c>
       <c r="J18">
-        <v>11.69806356375695</v>
+        <v>11.44216665161432</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.45349085434409</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.14762764544404</v>
       </c>
       <c r="N18">
-        <v>6.5229991468323</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.99847195767688</v>
+        <v>6.599001069793599</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.08510727308162</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.9975424491862</v>
+        <v>25.92575462135716</v>
       </c>
       <c r="C19">
-        <v>16.6600585467151</v>
+        <v>17.4000372982522</v>
       </c>
       <c r="D19">
-        <v>4.306440908395956</v>
+        <v>4.453953025486607</v>
       </c>
       <c r="E19">
-        <v>8.205755593624001</v>
+        <v>8.000867788550229</v>
       </c>
       <c r="F19">
-        <v>28.6485754949233</v>
+        <v>26.71828258916564</v>
       </c>
       <c r="G19">
-        <v>40.97311098525016</v>
+        <v>37.30926892927399</v>
       </c>
       <c r="H19">
-        <v>3.188496299467536</v>
+        <v>3.173408251264742</v>
       </c>
       <c r="I19">
-        <v>2.991667216104741</v>
+        <v>2.979436597602914</v>
       </c>
       <c r="J19">
-        <v>12.17632289770449</v>
+        <v>11.86963636757518</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.05585407006713</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.79390584875926</v>
       </c>
       <c r="N19">
-        <v>7.42011633229509</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.96834905492982</v>
+        <v>7.505838311244112</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.0076939077198</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.54343519543118</v>
+        <v>27.28127197382131</v>
       </c>
       <c r="C20">
-        <v>16.37061077575346</v>
+        <v>17.20401086163394</v>
       </c>
       <c r="D20">
-        <v>4.206362032192664</v>
+        <v>4.332933843530298</v>
       </c>
       <c r="E20">
-        <v>8.999878092882199</v>
+        <v>8.6484052222713</v>
       </c>
       <c r="F20">
-        <v>31.04901137034898</v>
+        <v>28.7225165837717</v>
       </c>
       <c r="G20">
-        <v>45.15893609573843</v>
+        <v>41.15783297815653</v>
       </c>
       <c r="H20">
-        <v>2.319095177566474</v>
+        <v>2.26980739217129</v>
       </c>
       <c r="I20">
-        <v>3.160723076719417</v>
+        <v>3.120187600366249</v>
       </c>
       <c r="J20">
-        <v>13.02588564138545</v>
+        <v>12.41195814770064</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.94052456222853</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.92955673883065</v>
       </c>
       <c r="N20">
-        <v>8.982358739644942</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.90320479888033</v>
+        <v>9.073989997771982</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.87383606314708</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.38523748428299</v>
+        <v>28.8054053696316</v>
       </c>
       <c r="C21">
-        <v>17.20214533654473</v>
+        <v>17.94881594552045</v>
       </c>
       <c r="D21">
-        <v>4.221794829535425</v>
+        <v>4.42293164296881</v>
       </c>
       <c r="E21">
-        <v>9.359548393657674</v>
+        <v>8.967576205239173</v>
       </c>
       <c r="F21">
-        <v>32.66539684996625</v>
+        <v>29.58699422612522</v>
       </c>
       <c r="G21">
-        <v>47.72666074402933</v>
+        <v>44.87980710981915</v>
       </c>
       <c r="H21">
-        <v>2.653025242369444</v>
+        <v>2.554034573436827</v>
       </c>
       <c r="I21">
-        <v>3.44617900709794</v>
+        <v>3.350455995979704</v>
       </c>
       <c r="J21">
-        <v>13.46753250498315</v>
+        <v>11.5514442274813</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.82148705982149</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.34908321874687</v>
       </c>
       <c r="N21">
-        <v>9.50128681062181</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.69105637152554</v>
+        <v>9.565556287149422</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.70406508692314</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.51984784554165</v>
+        <v>29.72818547593121</v>
       </c>
       <c r="C22">
-        <v>17.7339130606299</v>
+        <v>18.41140052673319</v>
       </c>
       <c r="D22">
-        <v>4.233155630401529</v>
+        <v>4.488339925779658</v>
       </c>
       <c r="E22">
-        <v>9.548208003145151</v>
+        <v>9.138584715465425</v>
       </c>
       <c r="F22">
-        <v>33.65227660660068</v>
+        <v>30.07621318174076</v>
       </c>
       <c r="G22">
-        <v>49.27872347069657</v>
+        <v>47.26831764622331</v>
       </c>
       <c r="H22">
-        <v>2.861612303782491</v>
+        <v>2.730847570030211</v>
       </c>
       <c r="I22">
-        <v>3.623760278111349</v>
+        <v>3.491297476580423</v>
       </c>
       <c r="J22">
-        <v>13.73717855048216</v>
+        <v>10.9289045277419</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.71278358017589</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.59469655168776</v>
       </c>
       <c r="N22">
-        <v>9.760423000258541</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.55192860364165</v>
+        <v>9.805782493662385</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.59962395645476</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.94150423874721</v>
+        <v>29.28224475944788</v>
       </c>
       <c r="C23">
-        <v>17.43202849855601</v>
+        <v>18.16826176269036</v>
       </c>
       <c r="D23">
-        <v>4.22567102741584</v>
+        <v>4.4454666655021</v>
       </c>
       <c r="E23">
-        <v>9.453236218705506</v>
+        <v>9.049902896304724</v>
       </c>
       <c r="F23">
-        <v>33.16871529678031</v>
+        <v>29.91195195736894</v>
       </c>
       <c r="G23">
-        <v>48.52694254613439</v>
+        <v>45.89870648875119</v>
       </c>
       <c r="H23">
-        <v>2.752128606867891</v>
+        <v>2.639472106867322</v>
       </c>
       <c r="I23">
-        <v>3.526732376209939</v>
+        <v>3.413672605778728</v>
       </c>
       <c r="J23">
-        <v>13.60943957545057</v>
+        <v>11.40384018333509</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.81717093409092</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.51661198156392</v>
       </c>
       <c r="N23">
-        <v>9.621633083689318</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.62729076469899</v>
+        <v>9.679506684912226</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.65121054703429</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.62515018214374</v>
+        <v>27.35376466886124</v>
       </c>
       <c r="C24">
-        <v>16.28423784479812</v>
+        <v>17.1230153825285</v>
       </c>
       <c r="D24">
-        <v>4.197871091675021</v>
+        <v>4.31783197495772</v>
       </c>
       <c r="E24">
-        <v>9.078326992640722</v>
+        <v>8.71722815943648</v>
       </c>
       <c r="F24">
-        <v>31.2342854266776</v>
+        <v>28.89316353917592</v>
       </c>
       <c r="G24">
-        <v>45.49348566472985</v>
+        <v>41.44652222970728</v>
       </c>
       <c r="H24">
-        <v>2.328101624977406</v>
+        <v>2.278061367843673</v>
       </c>
       <c r="I24">
-        <v>3.158014156418245</v>
+        <v>3.114559483910369</v>
       </c>
       <c r="J24">
-        <v>13.09945141877262</v>
+        <v>12.48602497780617</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.04737399996773</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.0386090569135</v>
       </c>
       <c r="N24">
-        <v>9.08179275182459</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.91137485704407</v>
+        <v>9.174486191212905</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.87066225308207</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.98333495747583</v>
+        <v>24.8938807096588</v>
       </c>
       <c r="C25">
-        <v>14.96842220847224</v>
+        <v>15.65384505838124</v>
       </c>
       <c r="D25">
-        <v>4.163793443001061</v>
+        <v>4.225162276104642</v>
       </c>
       <c r="E25">
-        <v>8.659213976589394</v>
+        <v>8.368267991645919</v>
       </c>
       <c r="F25">
-        <v>29.07475803313199</v>
+        <v>27.10704714569762</v>
       </c>
       <c r="G25">
-        <v>42.08070248981396</v>
+        <v>38.3965685881055</v>
       </c>
       <c r="H25">
-        <v>1.854620391804387</v>
+        <v>1.856233822046646</v>
       </c>
       <c r="I25">
-        <v>2.749985509613437</v>
+        <v>2.765645107303301</v>
       </c>
       <c r="J25">
-        <v>12.55045596285511</v>
+        <v>12.16021131551146</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.02857821049563</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.26860706259321</v>
       </c>
       <c r="N25">
-        <v>8.465798313049079</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.21956738345344</v>
+        <v>8.569447102896085</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.13207751858076</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
